--- a/Princípios Desenvolvimento Software/Test Scenario Sprint 2.xlsx
+++ b/Princípios Desenvolvimento Software/Test Scenario Sprint 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nunocastro/Dropbox/Isep/UPSkill_/PDS/Sprints/Sprint 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\OneDrive\Ambiente de Trabalho\submissoes\Princípios Desenvolvimento Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EFA143-4CB1-C846-A774-B9B4121A2906}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B72D521-D4AD-475F-AAAE-499BAC73BB79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27280" windowHeight="12760" xr2:uid="{FDE17A92-904B-42F4-9FAD-C9666220B1F7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FDE17A92-904B-42F4-9FAD-C9666220B1F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Test Scenario #</t>
   </si>
@@ -103,11 +103,27 @@
     <t>Verificar a especificação de tarefas (UC6)</t>
   </si>
   <si>
-    <t>1. Testar sem autenticação
-2. Testar com autenticação</t>
-  </si>
-  <si>
     <t>Verificar funcionalidades disponíveis ao utilizador</t>
+  </si>
+  <si>
+    <t>1.	Testar com dados (nome, NIF, tlf, endCodPostal, ..) inválidos. 
+2.	Testar com dados (nome, NIF, tlf, endCodPostal, ..) válidos. 
+3.	Testar registo de Gestor com Colaborador inválido.
+4.	Testar registo de Gestor com Colaborador válido.
+5.	Testar registo de Gestor com password inválida.
+5.	Testar registo de Gestor com password válida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.	Testar com dados (cod, descBreve, descDet.) inválidos. 
+2.	Testar com dados (cod, descBreve, descDet.) válidos.  </t>
+  </si>
+  <si>
+    <t>1.	Testar com dados (nome, NIF, tlf, endCodPostal, ..) inválidos. 
+2.	Testar com dados (nome, NIF, tlf, endCodPostal, ..) válidos. 
+3.	Testar registo de Gestor com Colaborador inválido.
+4.	Testar registo de Gestor com Colaborador válido.
+5.	Testar registo de Gestor com password inválida.
+6.	Testar registo de Gestor com password válida.</t>
   </si>
 </sst>
 </file>
@@ -534,33 +550,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1697F3A-DC74-4DC8-BA90-7B4AF53ADB4A}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="125.5" customWidth="1"/>
+    <col min="3" max="3" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="125.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,7 +590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>1</v>
       </c>
@@ -588,7 +604,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>2</v>
       </c>
@@ -598,9 +614,11 @@
       <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>3</v>
       </c>
@@ -610,9 +628,11 @@
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>4</v>
       </c>
@@ -622,9 +642,11 @@
       <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>5</v>
       </c>
@@ -634,9 +656,11 @@
       <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>6</v>
       </c>
@@ -646,9 +670,11 @@
       <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>7</v>
       </c>
@@ -658,9 +684,11 @@
       <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="D13" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>8</v>
       </c>
@@ -668,13 +696,13 @@
         <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>9</v>
       </c>
@@ -682,7 +710,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>10</v>
       </c>
@@ -690,7 +718,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>11</v>
       </c>
@@ -698,7 +726,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>12</v>
       </c>
@@ -706,7 +734,7 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>13</v>
       </c>
@@ -714,7 +742,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>14</v>
       </c>
@@ -722,7 +750,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>15</v>
       </c>
@@ -895,6 +923,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -903,20 +937,37 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83BC8FFF-4621-41B3-98ED-B0D56F6FC1E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="958fda12-23b8-4351-b231-7e729a58f827"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83BC8FFF-4621-41B3-98ED-B0D56F6FC1E8}"/>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5908306-E508-45DE-A67E-FA18A7E79718}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A270A6C-41D3-4E5C-80D4-A04D515BC193}"/>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5908306-E508-45DE-A67E-FA18A7E79718}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A270A6C-41D3-4E5C-80D4-A04D515BC193}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Princípios Desenvolvimento Software/Test Scenario Sprint 2.xlsx
+++ b/Princípios Desenvolvimento Software/Test Scenario Sprint 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\OneDrive\Ambiente de Trabalho\submissoes\Princípios Desenvolvimento Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B72D521-D4AD-475F-AAAE-499BAC73BB79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBD106E-1424-4AC5-B467-E341FCA2927D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FDE17A92-904B-42F4-9FAD-C9666220B1F7}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Test Scenario #</t>
   </si>
@@ -124,6 +124,26 @@
 4.	Testar registo de Gestor com Colaborador válido.
 5.	Testar registo de Gestor com password inválida.
 6.	Testar registo de Gestor com password válida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.	Testar com dados (área de atividade, descrição de tarefa, competência técnica, grau) inválidos. 
+2.	Testar com dados (área de atividade, descrição de tarefa, competência técnica, grau) válidos. </t>
+  </si>
+  <si>
+    <t>1.	Testar com dados inválidos. 
+2.	Testar com dados válidos. 
+3.	Testar com dados de grau de proficiência inválidos.
+4.	Testar com dados de grau de proficiência válidos.</t>
+  </si>
+  <si>
+    <t>1.	Testar com dados do colaborador inválidos. 
+2.	Testar com dados do colaborador válidos. 
+3.	Registar colaborador com email/password inválido.
+4.	Registar colaborador com email/password válido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.	Testar com dados inválidos. 
+2.	Testar com dados válidos. </t>
   </si>
 </sst>
 </file>
@@ -550,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1697F3A-DC74-4DC8-BA90-7B4AF53ADB4A}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +652,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>4</v>
       </c>
@@ -643,10 +663,10 @@
         <v>18</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>5</v>
       </c>
@@ -657,10 +677,10 @@
         <v>19</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>6</v>
       </c>
@@ -671,10 +691,10 @@
         <v>20</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>7</v>
       </c>
@@ -685,7 +705,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -765,6 +785,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010012110C179FB2474DBD0E7D8AAC441234" ma:contentTypeVersion="6" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="f01bd94f17b46b18e3f1347b74130a26">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="958fda12-23b8-4351-b231-7e729a58f827" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f16190ad529205b3698d1df2ca7600ff" ns2:_="">
     <xsd:import namespace="958fda12-23b8-4351-b231-7e729a58f827"/>
@@ -922,22 +957,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A270A6C-41D3-4E5C-80D4-A04D515BC193}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5908306-E508-45DE-A67E-FA18A7E79718}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83BC8FFF-4621-41B3-98ED-B0D56F6FC1E8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -953,21 +990,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5908306-E508-45DE-A67E-FA18A7E79718}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A270A6C-41D3-4E5C-80D4-A04D515BC193}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Princípios Desenvolvimento Software/Test Scenario Sprint 2.xlsx
+++ b/Princípios Desenvolvimento Software/Test Scenario Sprint 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\OneDrive\Ambiente de Trabalho\submissoes\Princípios Desenvolvimento Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBD106E-1424-4AC5-B467-E341FCA2927D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F688A34-FDC2-47D4-B156-48BF0B1FA7CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FDE17A92-904B-42F4-9FAD-C9666220B1F7}"/>
   </bookViews>
@@ -106,14 +106,6 @@
     <t>Verificar funcionalidades disponíveis ao utilizador</t>
   </si>
   <si>
-    <t>1.	Testar com dados (nome, NIF, tlf, endCodPostal, ..) inválidos. 
-2.	Testar com dados (nome, NIF, tlf, endCodPostal, ..) válidos. 
-3.	Testar registo de Gestor com Colaborador inválido.
-4.	Testar registo de Gestor com Colaborador válido.
-5.	Testar registo de Gestor com password inválida.
-5.	Testar registo de Gestor com password válida.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.	Testar com dados (cod, descBreve, descDet.) inválidos. 
 2.	Testar com dados (cod, descBreve, descDet.) válidos.  </t>
   </si>
@@ -144,6 +136,10 @@
   <si>
     <t xml:space="preserve">1.	Testar com dados inválidos. 
 2.	Testar com dados válidos. </t>
+  </si>
+  <si>
+    <t>1.	Testar funcionalidades indisponíveis
+2.	Testar funcionalidades disponíveis</t>
   </si>
 </sst>
 </file>
@@ -570,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1697F3A-DC74-4DC8-BA90-7B4AF53ADB4A}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,7 +631,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -649,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -663,7 +659,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -677,7 +673,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -691,7 +687,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -705,10 +701,10 @@
         <v>21</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>8</v>
       </c>
@@ -719,7 +715,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -785,21 +781,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010012110C179FB2474DBD0E7D8AAC441234" ma:contentTypeVersion="6" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="f01bd94f17b46b18e3f1347b74130a26">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="958fda12-23b8-4351-b231-7e729a58f827" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f16190ad529205b3698d1df2ca7600ff" ns2:_="">
     <xsd:import namespace="958fda12-23b8-4351-b231-7e729a58f827"/>
@@ -957,24 +938,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A270A6C-41D3-4E5C-80D4-A04D515BC193}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5908306-E508-45DE-A67E-FA18A7E79718}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83BC8FFF-4621-41B3-98ED-B0D56F6FC1E8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -990,4 +969,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5908306-E508-45DE-A67E-FA18A7E79718}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A270A6C-41D3-4E5C-80D4-A04D515BC193}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>